--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-888870.2490515793</v>
+        <v>-894732.5690867581</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12784393.25755828</v>
+        <v>12783213.29877744</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>260.541532399238</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>75.11824781814215</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968093</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>169.4544310825413</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.1153934372783</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>162.7795370659359</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>131.8292722034916</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>267.7439828217559</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>115.1032364618104</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968093</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>153.1349037771193</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>25.52025186046594</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>344.2583277284463</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3.603345957509005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>257.5339557994072</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>106.0732249895543</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>78.14577590819462</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>2.695166096340799</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>118.7252766813151</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>110.1357000881388</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>27.32710805344468</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>161.8375989196102</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>65.8978830507904</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>64.74640585611965</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386992</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875392</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1970.276500964319</v>
+        <v>989.8414032318723</v>
       </c>
       <c r="C2" t="n">
-        <v>1970.276500964319</v>
+        <v>989.8414032318723</v>
       </c>
       <c r="D2" t="n">
-        <v>1584.835372180987</v>
+        <v>604.40027444854</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.251847297532</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477962</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357994</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059666</v>
+        <v>1450.277176783644</v>
       </c>
       <c r="N2" t="n">
-        <v>2106.518148697128</v>
+        <v>1450.277176783644</v>
       </c>
       <c r="O2" t="n">
-        <v>2106.518148697128</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964319</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964319</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964319</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="V2" t="n">
-        <v>1970.276500964319</v>
+        <v>1775.784717378214</v>
       </c>
       <c r="W2" t="n">
-        <v>1970.276500964319</v>
+        <v>1775.784717378214</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.276500964319</v>
+        <v>1386.332112311271</v>
       </c>
       <c r="Y2" t="n">
-        <v>1970.276500964319</v>
+        <v>989.8414032318723</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>574.3337716287374</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1252.641318430368</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430368</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021349</v>
+        <v>1552.274689874028</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737747</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>905.4443229941915</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>726.1301060696987</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.3828263927946</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="C4" t="n">
-        <v>367.3828263927946</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="D4" t="n">
-        <v>211.7497132953094</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="E4" t="n">
-        <v>211.7497132953094</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953094</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>742.1265981188567</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V4" t="n">
-        <v>742.1265981188567</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W4" t="n">
-        <v>742.1265981188567</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="X4" t="n">
-        <v>742.1265981188567</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="Y4" t="n">
-        <v>519.0145369355</v>
+        <v>209.7573006568929</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.330364670804</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="C5" t="n">
-        <v>1392.154863173734</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D5" t="n">
-        <v>1006.713734390402</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E5" t="n">
-        <v>1006.713734390402</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F5" t="n">
-        <v>589.8192959203797</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G5" t="n">
-        <v>176.6565404083828</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475494</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475494</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132837</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354862</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572948</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737747</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737747</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737747</v>
+        <v>1614.903139478092</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737747</v>
+        <v>1272.796330181611</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737747</v>
+        <v>1002.347862684888</v>
       </c>
       <c r="X5" t="n">
-        <v>1785.330364670804</v>
+        <v>1002.347862684888</v>
       </c>
       <c r="Y5" t="n">
-        <v>1785.330364670804</v>
+        <v>605.8571536054886</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>757.0936408843434</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>813.5918890426547</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591875</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>1940.23166071679</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1940.23166071679</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1730.168517395432</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1507.628515766499</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1277.511269899786</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1088.204192249797</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>908.8899753253047</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>524.0156114132402</v>
+        <v>509.9408456793568</v>
       </c>
       <c r="C7" t="n">
-        <v>353.8104934792294</v>
+        <v>509.9408456793568</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1773803817442</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475494</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475494</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475494</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>793.2712477481791</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>793.2712477481791</v>
       </c>
       <c r="U7" t="n">
-        <v>709.2236301045415</v>
+        <v>793.2712477481791</v>
       </c>
       <c r="V7" t="n">
-        <v>709.2236301045415</v>
+        <v>793.2712477481791</v>
       </c>
       <c r="W7" t="n">
-        <v>709.2236301045415</v>
+        <v>509.9408456793568</v>
       </c>
       <c r="X7" t="n">
-        <v>709.2236301045415</v>
+        <v>509.9408456793568</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.2236301045415</v>
+        <v>509.9408456793568</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.2114101877287</v>
+        <v>466.1046008912472</v>
       </c>
       <c r="C8" t="n">
-        <v>808.2114101877287</v>
+        <v>72.9290993941778</v>
       </c>
       <c r="D8" t="n">
-        <v>808.2114101877287</v>
+        <v>72.9290993941778</v>
       </c>
       <c r="E8" t="n">
-        <v>808.2114101877287</v>
+        <v>72.9290993941778</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>60.07506496455962</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>50.95271349296684</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4838,16 +4838,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W8" t="n">
-        <v>1994.649470045468</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.196864978524</v>
+        <v>1263.090055682043</v>
       </c>
       <c r="Y8" t="n">
-        <v>1208.706155899126</v>
+        <v>866.5993466026441</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>858.0088487631995</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>373.0769001763519</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>564.7236943873829</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>281.3932923185605</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>558.2849188676532</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1969.404266402642</v>
+        <v>1781.370595610413</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.025040051766</v>
+        <v>1459.991369259537</v>
       </c>
       <c r="D11" t="n">
-        <v>1334.380186414628</v>
+        <v>1146.346515622398</v>
       </c>
       <c r="E11" t="n">
-        <v>1003.592936677366</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>658.4947733535381</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>317.128292987735</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>64.84151770041936</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2921.999930786569</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2921.999930786569</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2622.79717090105</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X11" t="n">
-        <v>2622.79717090105</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="Y11" t="n">
-        <v>2298.102736967845</v>
+        <v>1781.370595610413</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420617</v>
+        <v>571.4129340497495</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542447</v>
+        <v>473.0040912619327</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029534</v>
+        <v>389.1672533106413</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>305.4047163160376</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5197,22 +5197,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T13" t="n">
-        <v>1193.683597021703</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U13" t="n">
-        <v>980.0410804097977</v>
+        <v>1090.541874550467</v>
       </c>
       <c r="V13" t="n">
-        <v>980.0410804097977</v>
+        <v>896.3588045174855</v>
       </c>
       <c r="W13" t="n">
-        <v>768.5069534871692</v>
+        <v>684.824677594857</v>
       </c>
       <c r="X13" t="n">
-        <v>768.5069534871692</v>
+        <v>684.824677594857</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.5069534871692</v>
+        <v>684.824677594857</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1719.577864530541</v>
+        <v>1680.640162217124</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179665</v>
+        <v>1359.260935866248</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1359.260935866248</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>1028.473686128986</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>683.375522805158</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527725</v>
+        <v>342.009042439355</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>89.72226715203945</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2942.484063064755</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V14" t="n">
-        <v>2672.173528914468</v>
+        <v>2651.689396636281</v>
       </c>
       <c r="W14" t="n">
-        <v>2372.970769028949</v>
+        <v>2651.689396636281</v>
       </c>
       <c r="X14" t="n">
-        <v>2372.970769028949</v>
+        <v>2334.033066715532</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048.276335095744</v>
+        <v>2009.338632782327</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>380.6485722465203</v>
+        <v>286.4385749083261</v>
       </c>
       <c r="C16" t="n">
-        <v>380.6485722465203</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="D16" t="n">
-        <v>296.8117342952289</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="E16" t="n">
-        <v>213.0491973006253</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="F16" t="n">
-        <v>127.519537659792</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
         <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922022</v>
+        <v>1332.809865128935</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.965602310117</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V16" t="n">
-        <v>905.7825322771347</v>
+        <v>924.984278484048</v>
       </c>
       <c r="W16" t="n">
-        <v>694.2484053545062</v>
+        <v>713.4501515614195</v>
       </c>
       <c r="X16" t="n">
-        <v>531.9643582836831</v>
+        <v>551.1661044905964</v>
       </c>
       <c r="Y16" t="n">
-        <v>380.6485722465203</v>
+        <v>399.8503184534335</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924234</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5552,13 +5552,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229791</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222398</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960396</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343036</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655128</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072208</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964837994</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5972,67 +5972,67 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924213</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129427</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6051,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,22 +6063,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072653</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411551</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878571</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884792</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6251,25 +6251,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1504.441740534771</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1875.180111332205</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2391.700393923186</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6388,10 +6388,10 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388004</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958355</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485128</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1765.220722740009</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304694</v>
+        <v>2293.032006377472</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2733.0716072698</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.5475482407616</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812063</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465407</v>
+        <v>693.3398934768792</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>876.5295275080884</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1039.234294549796</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450177</v>
+        <v>1270.762580901358</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,22 +7093,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7205,7 +7205,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7345,7 +7345,7 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,16 +7445,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229927</v>
+        <v>67.69877031229802</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222411</v>
+        <v>149.5338114222399</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960397</v>
       </c>
       <c r="M43" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343037</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7667,13 +7667,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7728,22 +7728,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343059</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>565.7063741961988</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>219.2558119284188</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>502.3269473776692</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>378.520290463762</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>288.1928110140933</v>
+        <v>596.2369171848075</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>435.0482473062436</v>
       </c>
       <c r="N6" t="n">
-        <v>554.0405189317963</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>270.4260094517309</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>471.7186805737889</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,7 +8547,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9243,22 +9243,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9480,25 +9480,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>499.3034269858954</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684342</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9650,7 +9650,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P23" t="n">
         <v>502.0059847475129</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>374.5901161977063</v>
       </c>
       <c r="M24" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>459.8553156798572</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069888</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10911,7 +10911,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,25 +11376,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>249.3336013316944</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>63.1802672473871</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>43.55827223740121</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>101.3703913576474</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>38.54832529028323</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362793</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>20.27929095540521</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>31.52687130914836</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>30.74679511069733</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1121765.689499332</v>
+        <v>1121164.141885572</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1121765.689499332</v>
+        <v>1121164.141885572</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997898.6288731567</v>
+        <v>997898.6288731564</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162298.960284021</v>
+        <v>162298.9602840212</v>
       </c>
       <c r="C2" t="n">
-        <v>162298.960284021</v>
+        <v>162298.9602840211</v>
       </c>
       <c r="D2" t="n">
         <v>162298.9602840211</v>
       </c>
       <c r="E2" t="n">
-        <v>143423.1210819605</v>
+        <v>143423.1210819607</v>
       </c>
       <c r="F2" t="n">
         <v>143423.1210819606</v>
@@ -26329,19 +26329,19 @@
         <v>162298.9602840215</v>
       </c>
       <c r="H2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="I2" t="n">
         <v>162298.9602840214</v>
       </c>
       <c r="J2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840213</v>
       </c>
       <c r="K2" t="n">
         <v>162298.9602840213</v>
       </c>
       <c r="L2" t="n">
-        <v>162298.9602840208</v>
+        <v>162298.9602840209</v>
       </c>
       <c r="M2" t="n">
         <v>162298.9602840215</v>
@@ -26350,10 +26350,10 @@
         <v>162298.9602840214</v>
       </c>
       <c r="O2" t="n">
-        <v>162298.9602840215</v>
+        <v>162298.9602840214</v>
       </c>
       <c r="P2" t="n">
-        <v>162298.9602840215</v>
+        <v>162298.9602840214</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668203</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728566</v>
+        <v>62456.24177539686</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277113</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
+        <v>99893.08150805096</v>
+      </c>
+      <c r="F4" t="n">
         <v>99893.08150805101</v>
-      </c>
-      <c r="F4" t="n">
-        <v>99893.08150805102</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996333</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
+        <v>148402.4904640164</v>
+      </c>
+      <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
-      <c r="K4" t="n">
-        <v>148402.4904640164</v>
-      </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,7 +26454,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="P4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551967</v>
       </c>
-      <c r="I5" t="n">
-        <v>58169.76931551965</v>
-      </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275535.7955020153</v>
+        <v>-271785.8973014807</v>
       </c>
       <c r="C6" t="n">
-        <v>-93330.84721015954</v>
+        <v>-97927.24026742573</v>
       </c>
       <c r="D6" t="n">
-        <v>-99346.64886793282</v>
+        <v>-107082.9380913244</v>
       </c>
       <c r="E6" t="n">
-        <v>-121778.5415999755</v>
+        <v>-121988.2731466649</v>
       </c>
       <c r="F6" t="n">
-        <v>-9655.980125930917</v>
+        <v>-9865.711672620464</v>
       </c>
       <c r="G6" t="n">
-        <v>-90948.1325678135</v>
+        <v>-90948.13256781345</v>
       </c>
       <c r="H6" t="n">
-        <v>-43522.8070311315</v>
+        <v>-43522.80703113138</v>
       </c>
       <c r="I6" t="n">
-        <v>-43522.80703113152</v>
+        <v>-43522.80703113147</v>
       </c>
       <c r="J6" t="n">
-        <v>-256564.7246284169</v>
+        <v>-250048.4394738438</v>
       </c>
       <c r="K6" t="n">
         <v>-49762.57543391456</v>
       </c>
       <c r="L6" t="n">
-        <v>-104945.1643685363</v>
+        <v>-108994.0015790084</v>
       </c>
       <c r="M6" t="n">
-        <v>-85723.63649075443</v>
+        <v>-86775.33150194258</v>
       </c>
       <c r="N6" t="n">
-        <v>-43522.8070311315</v>
+        <v>-43522.80703113147</v>
       </c>
       <c r="O6" t="n">
-        <v>-71290.50107390253</v>
+        <v>-71290.50107390276</v>
       </c>
       <c r="P6" t="n">
-        <v>-43522.80703113132</v>
+        <v>-43522.80703113138</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
+        <v>130.3599693155845</v>
+      </c>
+      <c r="P2" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P2" t="n">
-        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,22 +26802,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085254</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660708</v>
+        <v>78.07030221924607</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287432</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085254</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>152.183961686084</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>263.5674933853746</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627135</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>17.95957579094716</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.24054506710996</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27585,25 +27585,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>68.95998192891079</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>189.0129477256827</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>99.54506185963947</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>34.04445167369828</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627135</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8683202422701868</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>175.2676711188102</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,7 +27834,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,13 +27862,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>68.46716635687568</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>317.2388739716652</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28068,16 +28068,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>5.785595927976772</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>114.8077155819687</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668673</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,37 +28956,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082768</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082768</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
         <v>30.2722376590126</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29542,16 +29542,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N29" t="n">
-        <v>30.27223765901306</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>43.49509683159818</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.65992738833049</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861253959</v>
+        <v>106.8683420224708</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,25 +30165,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30417,10 +30417,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634529035</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668811</v>
+        <v>35.71049010668685</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30885,10 +30885,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634530001</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344367</v>
+        <v>415.9813225984715</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>68.95436468749364</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>409.9398253283572</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>291.4369256444473</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>138.4677594163661</v>
+        <v>446.5118655870801</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>342.6611252569317</v>
       </c>
       <c r="N6" t="n">
-        <v>468.6684060776297</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>117.1778397212393</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>381.6583337168707</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,7 +35267,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634527659</v>
+        <v>5.636002634529087</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36200,25 +36200,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>409.2430801289772</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634527946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.1108817260881</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>284.5297693407881</v>
       </c>
       <c r="M24" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>156.7975262446462</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634527946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>528.5755626272236</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>374.4832028256905</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851011</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,16 +36838,16 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039242</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -37069,25 +37069,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>595.0111574826897</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.3726143993896</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>82.705432300551</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269207</v>
+        <v>110.3251060326233</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716079</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529037</v>
+        <v>5.636002634527774</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38029,7 +38029,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.809314087322</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>315.4000036905431</v>
@@ -38193,7 +38193,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
